--- a/Rohit_Sharma_Centuries USING EXCEL.xlsx
+++ b/Rohit_Sharma_Centuries USING EXCEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b939a8cca60550d/Desktop/ROHIT SHARMA/ROHIT SHARMA CENTURIES EXCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="8_{3DC16CC9-575A-49AA-B8FF-77D8CECA94C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B43EC610-0DD8-4F04-B626-6D46356A83D8}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="8_{3DC16CC9-575A-49AA-B8FF-77D8CECA94C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{313BB6ED-B181-42BE-AF1B-21066C954288}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" activeTab="1" xr2:uid="{21D5FB88-1F2D-467A-8E8F-910931DBE88D}"/>
   </bookViews>
@@ -12601,15 +12601,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12624,7 +12624,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2423160" y="617220"/>
+          <a:off x="2362200" y="388620"/>
           <a:ext cx="9525000" cy="4267200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12666,10 +12666,18 @@
           <a:r>
             <a:rPr lang="en-IN" sz="3200">
               <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2.THROUGH SOME KIND OF ASTROLOGICAL REASONS ROHIT IS MORE SUCCESSFUL IN MONTH OF OCTOBER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="3200">
+              <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>2.THROUGH SOME KIND OF ASTROLOGICAL REASONS ROHIT IS MORE SUCCESSFUL IN MONTH OF OCTOBER.</a:t>
+            <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -12677,7 +12685,7 @@
           <a:r>
             <a:rPr lang="en-IN" sz="3200">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
             </a:rPr>
             <a:t>3.ROHIT</a:t>
@@ -12685,10 +12693,18 @@
           <a:r>
             <a:rPr lang="en-IN" sz="3200" baseline="0">
               <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> SHARMA WAS MORE SUCCESSFUL AS A  PLAYER THAN A CAPTAIN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="3200" baseline="0">
+              <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> SHARMA WAS MORE SUCCESSFUL AS A  PLAYER THAN A CAPTAIN.</a:t>
+            <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -12696,10 +12712,18 @@
           <a:r>
             <a:rPr lang="en-IN" sz="3200" baseline="0">
               <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4.HIS BATTING SUCCESS SKYROCKETED  AS A OPENER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="3200" baseline="0">
+              <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>4.HIS BATTING SUCCESS SKYROCKETED  AS A OPENER.</a:t>
+            <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -12707,10 +12731,18 @@
           <a:r>
             <a:rPr lang="en-IN" sz="3200" baseline="0">
               <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5.2019 WAS HIS MILESTONE YEAR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="3200" baseline="0">
+              <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>5.2019 WAS HIS MILESTONE YEAR.</a:t>
+            <a:t>.</a:t>
           </a:r>
           <a:endParaRPr lang="en-IN" sz="3200">
             <a:solidFill>
@@ -12790,6 +12822,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13091,7 +13127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BB2877-F89C-4D66-BFCF-0D06849CD2F1}">
   <dimension ref="Q4:U7"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="Q88" sqref="Q88"/>
     </sheetView>
   </sheetViews>
@@ -13141,7 +13177,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
